--- a/legal_definitions.xlsx
+++ b/legal_definitions.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\project\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -40,9 +45,6 @@
     <t>هو توافق إرادتين أو أكثر على إحداث أثر قانوني معين، سواء كان إنشاء التزام، أو نقله، أو تعديله، أو إنهاؤه، ويُعد مصدرًا أساسيًا للالتزامات المدنية. لانعقاد العقد يجب أن يتحقق التراضي بين الأطراف دون عيوب كالغلط أو التدليس أو الإكراه (المواد 59-66)، وأن يكون له محل معين، ممكن، ومشروع (المواد 93-97)، وأن يكون السبب مشروعًا وغير مخالف للنظام العام (المواد 98-100). العقود في الأصل رضائية، ولكن بعضها يحتاج إلى شكلية معينة مثل عقد البيع العقاري (المواد 71-73). كما أن العقد ملزم للأطراف، بحيث لا يجوز تعديله أو إنهاؤه إلا باتفاقهما أو وفقًا للقانون (المادة 106). في حال الإخلال بالالتزامات، يمكن فسخ العقد قضائيًا أو اتفاقيًا (المواد 119-120). ويشمل القانون المدني الجزائري الأحكام المنظمة للعقود في المواد من 54 إلى 120ه...</t>
   </si>
   <si>
-    <t>الأهلية القانونية هي قدرة الشخص على اكتساب الحقوق وتحمل الالتزامات وفقًا للقانون.</t>
-  </si>
-  <si>
     <t>الالتزام هو رابطة قانونية يلزم بها المدين بأداء معين للدائن.</t>
   </si>
   <si>
@@ -50,17 +52,37 @@
   </si>
   <si>
     <t>عرفته المادة الاولى من قانون العقوبات الجزائري على انه لا جريمة و لا عقوبة و لا تدابير امن بغير قانون.</t>
+  </si>
+  <si>
+    <t>الأهلية القانونية هي قدرة الشخص على اكتساب الحقوق وتحمل الالتزامات وفقًا للقانون. وهي تنقسم إلى أهلية الوجوب، التي تثبت لكل شخص منذ ولادته، وأهلية الأداء، التي تعني قدرة الشخص على التصرف القانوني بنفسه. تختلف الأهلية باختلاف السن والإدراك، حيث يكون الشخص ناقص الأهلية أو فاقدها إذا لم يستوفِ الشروط التي يحددها القانون.
+تعتبر الأهلية القانونية عنصرًا أساسيًا في ممارسة الحقوق المدنية، وتشمل الأهلية في إبرام العقود، إجراء التصرفات القانونية، والتقاضي أمام المحاكم. إلا أن هذه الأهلية قد تكون مقيدة أو منعدمة في حالات معينة مثل القُصر، المحجور عليهم، أو من يعانون من عوارض الأهلية كالعته أو الجنون.
+ الأهلية القانونية في القانون المدني الجزائري
+ سن الرشد القانوني:
+ نصت المادة 40 من القانون المدني الجزائري على أن سن الرشد هو 19 سنة، ومن بلغ هذا السن يتمتع بكامل الأهلية، ما لم يطرأ عليه عارض من عوارض الأهلية.
+ فاقدو الأهلية وناقصوها:
+ وفقًا للمادة 42، فإن الأشخاص الذين يفقدون التمييز بسبب صغر السن (أقل من 13 سنة) أو الجنون أو العته لا يكونون أهلاً للتصرفات القانونية.
+ أما المادة 43، فتشير إلى أن من بلغ سن التمييز (13 سنة فأكثر) لكنه لم يبلغ سن الرشد، أو كان سفيهًا أو ذا غفلة، فيُعتبر ناقص الأهلية، وتخضع تصرفاته القانونية للرقابة وفقًا للقانون.
+ التصرفات القانونية للمحجور عليهم:
+ بحسب المادة 44، يخضع الأشخاص ناقصو الأهلية أو فاقدوها إلى أحكام الولاية، أو الوصاية، أو القوامة وفقًا للحالات المنصوص عليها قانونًا.
+ كما تنص المادة 45 على أنه لا يجوز لأي شخص التنازل عن أهليته أو تغيير أحكامها، مما يعني أن الأهلية لا يجوز المساس بها إلا وفقًا لما يقرره القانون.
+ المساعد القضائي لفاقدي التمييز:
+ وفقًا للمادة 80، إذا كان الشخص أصم أبكم أو أعمى أصم أو أعمى أبكم، وتعذر عليه التعبير عن إرادته بسبب هذه العاهات، يمكن للمحكمة تعيين مساعد قضائي له لمساعدته في التصرفات القانونية التي تقتضي مصلحته.
+ بطلان التصرفات القانونية بسبب الأهلية:
+ نصت المادة 103 على أنه إذا كان العقد باطلاً أو قابلًا للإبطال بسبب نقص الأهلية، فإنه يعاد المتعاقدان إلى الحالة التي كانا عليها قبل التعاقد، وفي حال استحالة ذلك، يمكن الحكم بتعويض معادل.
+ كما أشارت المادة 90 إلى أنه إذا استغل أحد المتعاقدين طيشًا بيّنًا أو هوى جامحًا لشخص ناقص الأهلية، فإن العقد يكون عرضة للإبطال من قبل القاضي.
+ خلاصة:
+الأهلية القانونية تعتبر عنصرًا أساسيًا في التعاملات المدنية، ويحدد القانون مدى قدرة الشخص على إبرام العقود وتحمل الالتزامات بناءً على السن والإدراك. بينما يتمتع البالغ الرشيد بكامل الأهلية، فإن القصر والمحجور عليهم يخضعون لتقييدات قانونية لحمايتهم من الاستغلال أو التصرفات غير الحكيمة</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -68,7 +90,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -108,10 +130,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -119,11 +144,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -165,7 +198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -197,9 +230,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,6 +265,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -406,14 +441,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -429,36 +466,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
